--- a/report_5.xlsx
+++ b/report_5.xlsx
@@ -38,25 +38,25 @@
     <t>Quantité</t>
   </si>
   <si>
-    <t>shopping with Manet</t>
+    <t>shopping with Rothko</t>
   </si>
   <si>
-    <t>2015-03-26</t>
+    <t>1971-08-05</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Practical Aluminum Computer</t>
+    <t>Heavy Duty Leather Bench</t>
   </si>
   <si>
-    <t>Bread</t>
+    <t>Bacon</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>4.0</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
